--- a/base_code_lab_02/robot_python_code/data_log.xlsx
+++ b/base_code_lab_02/robot_python_code/data_log.xlsx
@@ -1,86 +1,411 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NYU_study\second_term\Robot_navigation\NYU_ROB_GY_6213\base_code_lab_02\robot_python_code\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C642F7-9684-4258-9D24-DE89996E9954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28740" windowHeight="12750" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>duration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>speed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>y</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>distance</t>
+  </si>
+  <si>
+    <t>cmd_rato</t>
   </si>
   <si>
     <t>alpha</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>theta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -88,24 +413,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -154,7 +765,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -189,7 +800,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -363,26 +974,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <cols>
+    <col min="6" max="8" width="12.625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,8 +1004,17 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>3</v>
       </c>
@@ -407,10 +1025,22 @@
         <v>36.5</v>
       </c>
       <c r="D2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+        <v>-0.3</v>
+      </c>
+      <c r="F2">
+        <f>SQRT(SUM(C2^2,D2^2))</f>
+        <v>36.5012328558913</v>
+      </c>
+      <c r="G2">
+        <f>F2/A2</f>
+        <v>12.1670776186304</v>
+      </c>
+      <c r="H2">
+        <f>G2/B2</f>
+        <v>0.405569253954348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>3</v>
       </c>
@@ -418,13 +1048,25 @@
         <v>30</v>
       </c>
       <c r="C3">
-        <v>36.299999999999997</v>
+        <v>36.3</v>
       </c>
       <c r="D3">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+        <v>0.4</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F10" si="0">SQRT(SUM(C3^2,D3^2))</f>
+        <v>36.3022037898528</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G10" si="1">F3/A3</f>
+        <v>12.1007345966176</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H10" si="2">G3/B3</f>
+        <v>0.403357819887253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -432,13 +1074,25 @@
         <v>30</v>
       </c>
       <c r="C4">
-        <v>35.700000000000003</v>
+        <v>35.7</v>
       </c>
       <c r="D4">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+        <v>0.2</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>35.700560219694</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>11.900186739898</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0.396672891329934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>6</v>
       </c>
@@ -449,10 +1103,22 @@
         <v>77.7</v>
       </c>
       <c r="D5">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+        <v>-0.9</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>77.7052121803937</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>12.9508686967323</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0.431695623224409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>6</v>
       </c>
@@ -460,13 +1126,25 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>79.400000000000006</v>
+        <v>79.4</v>
       </c>
       <c r="D6">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+        <v>-1.2</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>79.4090674923211</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>13.2348445820535</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.44116148606845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
@@ -477,10 +1155,22 @@
         <v>80.3</v>
       </c>
       <c r="D7">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+        <v>-1.1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>80.3075338931535</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>13.3845889821923</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.446152966073075</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>10</v>
       </c>
@@ -488,13 +1178,25 @@
         <v>30</v>
       </c>
       <c r="C8">
-        <v>130.19999999999999</v>
+        <v>130.2</v>
       </c>
       <c r="D8">
-        <v>5.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+        <v>-5.7</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>130.324709859642</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>13.0324709859642</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0.434415699532142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>10</v>
       </c>
@@ -502,13 +1204,25 @@
         <v>30</v>
       </c>
       <c r="C9">
-        <v>130.69999999999999</v>
+        <v>130.7</v>
       </c>
       <c r="D9">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+        <v>-4.6</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>130.780923685375</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>13.0780923685375</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.435936412284585</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>10</v>
       </c>
@@ -516,34 +1230,47 @@
         <v>30</v>
       </c>
       <c r="C10">
-        <v>130.19999999999999</v>
+        <v>130.2</v>
       </c>
       <c r="D10">
-        <v>1.1000000000000001</v>
+        <v>-1.1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>130.204646614474</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>13.0204646614474</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.434015488714913</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D02DA300-42F6-4AD4-BBAC-A48A80ABFB92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -555,10 +1282,10 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>3</v>
       </c>
@@ -572,13 +1299,14 @@
         <v>23.9</v>
       </c>
       <c r="E2">
-        <v>-5.7</v>
+        <f>--5.7</f>
+        <v>5.7</v>
       </c>
       <c r="F2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>6</v>
       </c>
@@ -592,13 +1320,13 @@
         <v>46.4</v>
       </c>
       <c r="E3">
-        <v>-29.1</v>
+        <v>29.1</v>
       </c>
       <c r="F3">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -609,16 +1337,16 @@
         <v>45</v>
       </c>
       <c r="D4">
-        <v>69.900000000000006</v>
+        <v>69.9</v>
       </c>
       <c r="E4">
-        <v>-21.5</v>
+        <v>21.5</v>
       </c>
       <c r="F4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>6</v>
       </c>
@@ -632,13 +1360,13 @@
         <v>119</v>
       </c>
       <c r="E5">
-        <v>-76.2</v>
+        <v>76.2</v>
       </c>
       <c r="F5">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+        <v>-70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -652,13 +1380,13 @@
         <v>102.4</v>
       </c>
       <c r="E6">
-        <v>-17.600000000000001</v>
+        <v>17.6</v>
       </c>
       <c r="F6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+        <v>-22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -672,13 +1400,13 @@
         <v>188.6</v>
       </c>
       <c r="E7">
-        <v>-69.900000000000006</v>
+        <v>69.9</v>
       </c>
       <c r="F7">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>3</v>
       </c>
@@ -692,14 +1420,14 @@
         <v>108.3</v>
       </c>
       <c r="E8">
-        <v>17.100000000000001</v>
+        <v>-17.1</v>
       </c>
       <c r="F8">
-        <f>-22</f>
-        <v>-22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+        <f>22</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>6</v>
       </c>
@@ -713,13 +1441,13 @@
         <v>198.5</v>
       </c>
       <c r="E9">
-        <v>21.5</v>
+        <v>-21.5</v>
       </c>
       <c r="F9">
-        <v>-48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>3</v>
       </c>
@@ -733,13 +1461,13 @@
         <v>80.2</v>
       </c>
       <c r="E10">
-        <v>23</v>
+        <v>-23</v>
       </c>
       <c r="F10">
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>6</v>
       </c>
@@ -753,13 +1481,13 @@
         <v>126.8</v>
       </c>
       <c r="E11">
-        <v>91.5</v>
+        <v>-91.5</v>
       </c>
       <c r="F11">
-        <v>-79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -773,13 +1501,13 @@
         <v>31.5</v>
       </c>
       <c r="E12">
-        <v>5.8</v>
+        <v>-5.8</v>
       </c>
       <c r="F12">
-        <v>-24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>6</v>
       </c>
@@ -793,14 +1521,14 @@
         <v>31.5</v>
       </c>
       <c r="E13">
-        <v>32.299999999999997</v>
+        <v>-32.3</v>
       </c>
       <c r="F13">
-        <v>-58</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>